--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,49 +46,49 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
@@ -97,36 +97,42 @@
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -142,24 +148,24 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -172,31 +178,37 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
   </si>
   <si>
     <t>play</t>
@@ -560,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,28 +641,28 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D3">
-        <v>43</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -700,16 +712,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K4">
-        <v>0.8387096774193549</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,16 +762,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.8307692307692308</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7150537634408602</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.796875</v>
+        <v>0.703125</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7204301075268817</v>
+        <v>0.671875</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.660377358490566</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7083333333333334</v>
+        <v>0.6699029126213593</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.6086956521739131</v>
+        <v>0.5781922525107605</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>403</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>27</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6959459459459459</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C9">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.5689655172413793</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>300</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6545454545454545</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,16 +1012,16 @@
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.5</v>
+        <v>0.533195020746888</v>
       </c>
       <c r="L10">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="M10">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6218487394957983</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C11">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.4688524590163934</v>
+        <v>0.4745901639344262</v>
       </c>
       <c r="L11">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="M11">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6213592233009708</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C12">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K12">
         <v>0.3795180722891566</v>
@@ -1129,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5101449275362319</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C13">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D13">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>0.3792048929663608</v>
@@ -1179,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4698795180722892</v>
+        <v>0.421875</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14">
-        <v>0.3666666666666666</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>76</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4631578947368421</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.3544973544973545</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.453125</v>
+        <v>0.4</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.3125</v>
+        <v>0.265625</v>
       </c>
       <c r="L16">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4251968503937008</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.2248995983935743</v>
+        <v>0.232</v>
       </c>
       <c r="L17">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>193</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.40625</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.1989247311827957</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>149</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3933649289099526</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C19">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.1831726555652936</v>
+        <v>0.1881720430107527</v>
       </c>
       <c r="L19">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>209</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>932</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3366336633663367</v>
+        <v>0.3217821782178218</v>
       </c>
       <c r="C20">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.1122994652406417</v>
+        <v>0.1726907630522088</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>332</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2474226804123711</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C21">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,31 +1559,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.1089385474860335</v>
+        <v>0.1640350877192983</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>188</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>319</v>
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.22</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.09616634178037686</v>
+        <v>0.1149732620320856</v>
       </c>
       <c r="L22">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1391</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,49 +1641,49 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2020802377414562</v>
+        <v>0.21</v>
       </c>
       <c r="C23">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>537</v>
+        <v>158</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.053475935828877</v>
+        <v>0.1125569290826285</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="M23">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="N23">
-        <v>0.91</v>
+        <v>0.98</v>
       </c>
       <c r="O23">
-        <v>0.08999999999999997</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>708</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1691,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1993670886075949</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,7 +1709,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>253</v>
+        <v>222</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24">
+        <v>0.1030640668523677</v>
+      </c>
+      <c r="L24">
+        <v>37</v>
+      </c>
+      <c r="M24">
+        <v>37</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1705,13 +1741,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1884057971014493</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1723,7 +1759,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>224</v>
+        <v>546</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25">
+        <v>0.064</v>
+      </c>
+      <c r="L25">
+        <v>48</v>
+      </c>
+      <c r="M25">
+        <v>50</v>
+      </c>
+      <c r="N25">
+        <v>0.96</v>
+      </c>
+      <c r="O25">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>702</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1731,25 +1791,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1835443037974684</v>
+        <v>0.1873198847262248</v>
       </c>
       <c r="C26">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1757,25 +1817,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1786743515850144</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="C27">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>285</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1783,13 +1843,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1519823788546255</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C28">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D28">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1801,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>385</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1809,25 +1869,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.08928571428571429</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E29">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1835,13 +1895,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08493150684931507</v>
+        <v>0.1198501872659176</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1853,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>334</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1861,25 +1921,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07511737089201878</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F31">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1887,25 +1947,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.06942148760330578</v>
+        <v>0.08732394366197183</v>
       </c>
       <c r="C32">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>563</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1913,25 +1973,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05859872611464968</v>
+        <v>0.07945205479452055</v>
       </c>
       <c r="C33">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E33">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>739</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1939,25 +1999,77 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05255023183925812</v>
+        <v>0.07590759075907591</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E34">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="F34">
-        <v>0.8100000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>613</v>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.04865556978233035</v>
+      </c>
+      <c r="C35">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>51</v>
+      </c>
+      <c r="E35">
+        <v>0.25</v>
+      </c>
+      <c r="F35">
+        <v>0.75</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.04776579352850539</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>37</v>
+      </c>
+      <c r="E36">
+        <v>0.16</v>
+      </c>
+      <c r="F36">
+        <v>0.84</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
